--- a/cars_db.xlsx
+++ b/cars_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Desktop\BOOLEAN CAREERS\_CORSO_FULL_STACK_WEB_DEVELOPER\DB\ESERCIZI\db-first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A53181-8252-48C2-90D9-25B8F8895F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C12C1E-0264-446A-9283-5861CEC5F6B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>registration_year</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -85,13 +82,28 @@
   </si>
   <si>
     <t>car_power</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>doors</t>
+  </si>
+  <si>
+    <t>TINY</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>vin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +139,14 @@
       <u/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,13 +190,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,12 +201,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -477,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,138 +512,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
